--- a/doc/theory_pics/Figure 3.xlsx
+++ b/doc/theory_pics/Figure 3.xlsx
@@ -12,10 +12,6 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1762,7 +1758,7 @@
           <c:max val="2"/>
           <c:min val="-2"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1782,39 +1778,6 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="413872216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -1825,7 +1788,7 @@
           <c:orientation val="minMax"/>
           <c:min val="1"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1908,39 +1871,6 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="413871888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -2551,7 +2481,7 @@
           <c:max val="2"/>
           <c:min val="-2"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2571,39 +2501,6 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="413872216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -2614,7 +2511,7 @@
           <c:orientation val="minMax"/>
           <c:min val="1"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2697,39 +2594,6 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="413871888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -3339,7 +3203,7 @@
           <c:max val="2"/>
           <c:min val="-2"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3359,39 +3223,6 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="413872216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -3402,7 +3233,7 @@
           <c:orientation val="minMax"/>
           <c:min val="1"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3485,39 +3316,6 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="413871888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -7755,32 +7553,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8255,7 +8027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>

--- a/doc/theory_pics/Figure 3.xlsx
+++ b/doc/theory_pics/Figure 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PPT" sheetId="3" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Scheduled DD=0</t>
   </si>
   <si>
-    <t>ScheduleD DD=1</t>
-  </si>
-  <si>
     <t>Actual DD=-1</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>Actual DD=1</t>
+  </si>
+  <si>
+    <t>Scheduled DD=1</t>
   </si>
 </sst>
 </file>
@@ -1438,7 +1438,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ScheduleD DD=1</c:v>
+                  <c:v>Scheduled DD=1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2161,7 +2161,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ScheduleD DD=1</c:v>
+                  <c:v>Scheduled DD=1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2884,7 +2884,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ScheduleD DD=1</c:v>
+                  <c:v>Scheduled DD=1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8027,8 +8027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:G6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8041,16 +8041,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -8143,7 +8143,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8156,16 +8156,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -8257,8 +8257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8271,16 +8271,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
